--- a/outcome/appendix/data/PHSMs/Hydatidosis.xlsx
+++ b/outcome/appendix/data/PHSMs/Hydatidosis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,19 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">包虫病</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -403,6 +415,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -424,10 +442,16 @@
         <v>618.045042949681</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>286</v>
+      </c>
+      <c r="I2" t="n">
+        <v>166.331895199779</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -450,10 +474,16 @@
         <v>462.430131558531</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>91</v>
+      </c>
+      <c r="I3" t="n">
+        <v>242.363726431632</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +506,16 @@
         <v>644.704112751944</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>249</v>
+      </c>
+      <c r="I4" t="n">
+        <v>209.215829949447</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -502,10 +538,16 @@
         <v>575.079402106866</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>362</v>
+      </c>
+      <c r="I5" t="n">
+        <v>41.2919625570024</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -528,10 +570,16 @@
         <v>555.575971577896</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>266</v>
+      </c>
+      <c r="I6" t="n">
+        <v>118.695079396892</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +602,16 @@
         <v>548.764724385439</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>264</v>
+      </c>
+      <c r="I7" t="n">
+        <v>111.408116274177</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -580,10 +634,16 @@
         <v>615.187673866486</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>283</v>
+      </c>
+      <c r="I8" t="n">
+        <v>133.008758418569</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -606,10 +666,16 @@
         <v>578.788009349039</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>397</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-9.92053973453238</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -632,10 +698,16 @@
         <v>509.794271715511</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>336</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.32530859647312</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +730,16 @@
         <v>528.306236473287</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>390</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-43.9944368069401</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -684,10 +762,16 @@
         <v>651.768619365978</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>403</v>
+      </c>
+      <c r="I12" t="n">
+        <v>19.65794855344</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -710,10 +794,16 @@
         <v>701.561360247409</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>412</v>
+      </c>
+      <c r="I13" t="n">
+        <v>38.6105063414147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -736,10 +826,16 @@
         <v>710.811300644947</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>378</v>
+      </c>
+      <c r="I14" t="n">
+        <v>74.3324963120959</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -762,10 +858,16 @@
         <v>528.5967509684</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>224</v>
+      </c>
+      <c r="I15" t="n">
+        <v>109.364169444924</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -788,10 +890,16 @@
         <v>732.948891437941</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>430</v>
+      </c>
+      <c r="I16" t="n">
+        <v>28.2164388810356</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -814,10 +922,16 @@
         <v>650.604238721125</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>304</v>
+      </c>
+      <c r="I17" t="n">
+        <v>99.2924984992357</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -840,10 +954,16 @@
         <v>625.764514116157</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>265</v>
+      </c>
+      <c r="I18" t="n">
+        <v>119.695590625379</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -866,10 +986,16 @@
         <v>615.6083109308</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>238</v>
+      </c>
+      <c r="I19" t="n">
+        <v>137.408615161045</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -892,10 +1018,16 @@
         <v>687.582791661022</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>306</v>
+      </c>
+      <c r="I20" t="n">
+        <v>110.00931126039</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -918,10 +1050,16 @@
         <v>644.710383859566</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>241</v>
+      </c>
+      <c r="I21" t="n">
+        <v>146.079974662603</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -944,10 +1082,16 @@
         <v>566.083406580986</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>296</v>
+      </c>
+      <c r="I22" t="n">
+        <v>41.3257568743859</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -970,10 +1114,16 @@
         <v>584.939182875666</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>207</v>
+      </c>
+      <c r="I23" t="n">
+        <v>139.006023006325</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -996,10 +1146,16 @@
         <v>719.690622904367</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>209</v>
+      </c>
+      <c r="I24" t="n">
+        <v>213.658510231494</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1022,10 +1178,16 @@
         <v>772.723044937972</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>327</v>
+      </c>
+      <c r="I25" t="n">
+        <v>123.611105166146</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1048,10 +1210,16 @@
         <v>781.066321627846</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>347</v>
+      </c>
+      <c r="I26" t="n">
+        <v>105.333097425212</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1074,10 +1242,16 @@
         <v>579.558673893675</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>213</v>
+      </c>
+      <c r="I27" t="n">
+        <v>120.364612458805</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1100,10 +1274,16 @@
         <v>801.942301693123</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>338</v>
+      </c>
+      <c r="I28" t="n">
+        <v>120.217047813433</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1126,10 +1306,16 @@
         <v>710.451979123906</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>283</v>
+      </c>
+      <c r="I29" t="n">
+        <v>120.293034442181</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1152,10 +1338,16 @@
         <v>682.062951695255</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>235</v>
+      </c>
+      <c r="I30" t="n">
+        <v>149.696101854546</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1178,10 +1370,16 @@
         <v>669.818139342265</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>250</v>
+      </c>
+      <c r="I31" t="n">
+        <v>125.409114048577</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1204,10 +1402,16 @@
         <v>746.888803472061</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>316</v>
+      </c>
+      <c r="I32" t="n">
+        <v>100.009864102946</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1230,10 +1434,16 @@
         <v>699.214719697584</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>267</v>
+      </c>
+      <c r="I33" t="n">
+        <v>120.080489060423</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1256,10 +1466,16 @@
         <v>613.020293960562</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>140</v>
+      </c>
+      <c r="I34" t="n">
+        <v>197.326205152894</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1282,10 +1498,16 @@
         <v>632.535215889665</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>115</v>
+      </c>
+      <c r="I35" t="n">
+        <v>231.006482820202</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1308,10 +1530,16 @@
         <v>777.191713275431</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>97</v>
+      </c>
+      <c r="I36" t="n">
+        <v>325.659071910295</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
